--- a/Code/Results/Cases/Case_9_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011415211305486</v>
+        <v>1.010955523554623</v>
       </c>
       <c r="D2">
-        <v>1.028946138147965</v>
+        <v>1.027921225330236</v>
       </c>
       <c r="E2">
-        <v>1.024514571724916</v>
+        <v>1.024150406391993</v>
       </c>
       <c r="F2">
-        <v>1.031441906294151</v>
+        <v>1.031146602247208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04677474115816</v>
+        <v>1.046353988794011</v>
       </c>
       <c r="J2">
-        <v>1.033259774758813</v>
+        <v>1.032813422523898</v>
       </c>
       <c r="K2">
-        <v>1.040016415143406</v>
+        <v>1.03900480930939</v>
       </c>
       <c r="L2">
-        <v>1.035642625826257</v>
+        <v>1.035283236207806</v>
       </c>
       <c r="M2">
-        <v>1.042479917769586</v>
+        <v>1.042188421249258</v>
       </c>
       <c r="N2">
-        <v>1.014933370057167</v>
+        <v>1.015860238404824</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042192394058173</v>
+        <v>1.041961694609912</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039365350165315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038658824351109</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022430821827395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014662888472369</v>
+        <v>1.014101750789357</v>
       </c>
       <c r="D3">
-        <v>1.03109275579671</v>
+        <v>1.029920201473792</v>
       </c>
       <c r="E3">
-        <v>1.027069812261222</v>
+        <v>1.0266226969043</v>
       </c>
       <c r="F3">
-        <v>1.034038431059348</v>
+        <v>1.033676670407121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047443094588908</v>
+        <v>1.046951170041526</v>
       </c>
       <c r="J3">
-        <v>1.034761655743051</v>
+        <v>1.034215232955797</v>
       </c>
       <c r="K3">
-        <v>1.041342674785728</v>
+        <v>1.040184042334399</v>
       </c>
       <c r="L3">
-        <v>1.03736766052748</v>
+        <v>1.036925900865886</v>
       </c>
       <c r="M3">
-        <v>1.044253548170824</v>
+        <v>1.043896048335348</v>
       </c>
       <c r="N3">
-        <v>1.015442746335132</v>
+        <v>1.01623778866665</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043596098960488</v>
+        <v>1.043313162963942</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040300465601439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039489704680409</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022648340029836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016731309764084</v>
+        <v>1.016106147481288</v>
       </c>
       <c r="D4">
-        <v>1.032463629730618</v>
+        <v>1.031197430523409</v>
       </c>
       <c r="E4">
-        <v>1.028703008272887</v>
+        <v>1.02820350314143</v>
       </c>
       <c r="F4">
-        <v>1.03569970903807</v>
+        <v>1.035296005631969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047861388911537</v>
+        <v>1.047324290570493</v>
       </c>
       <c r="J4">
-        <v>1.035716498599001</v>
+        <v>1.035106640616485</v>
       </c>
       <c r="K4">
-        <v>1.042185420521808</v>
+        <v>1.040933364117715</v>
       </c>
       <c r="L4">
-        <v>1.038466928745668</v>
+        <v>1.037973048056247</v>
       </c>
       <c r="M4">
-        <v>1.045385547667562</v>
+        <v>1.044986314233568</v>
       </c>
       <c r="N4">
-        <v>1.015766564623806</v>
+        <v>1.016477891999835</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044491996287248</v>
+        <v>1.044176031461046</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040897251608385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040020515447836</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022784266057301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017595748875229</v>
+        <v>1.016943944894586</v>
       </c>
       <c r="D5">
-        <v>1.033039656945321</v>
+        <v>1.03173443834345</v>
       </c>
       <c r="E5">
-        <v>1.029387049974136</v>
+        <v>1.028865734848909</v>
       </c>
       <c r="F5">
-        <v>1.036395435964871</v>
+        <v>1.035974278543631</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048035851000785</v>
+        <v>1.047479908177447</v>
       </c>
       <c r="J5">
-        <v>1.036116452077705</v>
+        <v>1.035480136080726</v>
       </c>
       <c r="K5">
-        <v>1.042540001813302</v>
+        <v>1.041248980172532</v>
       </c>
       <c r="L5">
-        <v>1.038927235774198</v>
+        <v>1.038411635242126</v>
       </c>
       <c r="M5">
-        <v>1.045859481016994</v>
+        <v>1.045442863478886</v>
       </c>
       <c r="N5">
-        <v>1.015902434362484</v>
+        <v>1.016578685889059</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044867080598558</v>
+        <v>1.044537357658182</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041155128741163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040251552919151</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022841435429899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017743591794289</v>
+        <v>1.017087215490222</v>
       </c>
       <c r="D6">
-        <v>1.033140950252541</v>
+        <v>1.031829095042983</v>
       </c>
       <c r="E6">
-        <v>1.029504275270255</v>
+        <v>1.028979214226353</v>
       </c>
       <c r="F6">
-        <v>1.036514099606885</v>
+        <v>1.036089945061284</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048067341042461</v>
+        <v>1.047508174533202</v>
       </c>
       <c r="J6">
-        <v>1.036186446754229</v>
+        <v>1.035545588268548</v>
       </c>
       <c r="K6">
-        <v>1.042604097270674</v>
+        <v>1.041306446904515</v>
       </c>
       <c r="L6">
-        <v>1.039006909551674</v>
+        <v>1.03848757796093</v>
       </c>
       <c r="M6">
-        <v>1.045940924257607</v>
+        <v>1.045521321115901</v>
       </c>
       <c r="N6">
-        <v>1.015926503871837</v>
+        <v>1.016596577599032</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044931537072622</v>
+        <v>1.044599451269554</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041209180166205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040301786794855</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022852388339913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016751344681169</v>
+        <v>1.016131831964987</v>
       </c>
       <c r="D7">
-        <v>1.032484268009183</v>
+        <v>1.031221967713569</v>
       </c>
       <c r="E7">
-        <v>1.028719280142433</v>
+        <v>1.028224488153994</v>
       </c>
       <c r="F7">
-        <v>1.035714676074664</v>
+        <v>1.035314728255573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047870154048417</v>
+        <v>1.047335686801143</v>
       </c>
       <c r="J7">
-        <v>1.035730105830255</v>
+        <v>1.035125752665959</v>
       </c>
       <c r="K7">
-        <v>1.042202953307702</v>
+        <v>1.040954746808022</v>
       </c>
       <c r="L7">
-        <v>1.03848012811867</v>
+        <v>1.037990905395161</v>
       </c>
       <c r="M7">
-        <v>1.045397485691205</v>
+        <v>1.04500196460931</v>
       </c>
       <c r="N7">
-        <v>1.015771981133265</v>
+        <v>1.016509420514595</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044501444380531</v>
+        <v>1.044188417621265</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040929729252115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040057715528089</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022790257369852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012530276859995</v>
+        <v>1.012055010737908</v>
       </c>
       <c r="D8">
-        <v>1.029691363521117</v>
+        <v>1.028630318673613</v>
       </c>
       <c r="E8">
-        <v>1.025391260346006</v>
+        <v>1.0250146936497</v>
       </c>
       <c r="F8">
-        <v>1.032330437744752</v>
+        <v>1.032025122302729</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047011534281117</v>
+        <v>1.046575775983488</v>
       </c>
       <c r="J8">
-        <v>1.033781142678081</v>
+        <v>1.033319209637689</v>
       </c>
       <c r="K8">
-        <v>1.040483622612935</v>
+        <v>1.039435951623379</v>
       </c>
       <c r="L8">
-        <v>1.036237933566922</v>
+        <v>1.035866159154373</v>
       </c>
       <c r="M8">
-        <v>1.043089581459786</v>
+        <v>1.042788086347055</v>
       </c>
       <c r="N8">
-        <v>1.015111239045549</v>
+        <v>1.016075540604013</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042674900702367</v>
+        <v>1.04243628821324</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039718580740538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038988822842996</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022514434760109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004816253054643</v>
+        <v>1.004588578157971</v>
       </c>
       <c r="D9">
-        <v>1.024606412250151</v>
+        <v>1.023900500753475</v>
       </c>
       <c r="E9">
-        <v>1.019355403859178</v>
+        <v>1.019181048826299</v>
       </c>
       <c r="F9">
-        <v>1.026208457611488</v>
+        <v>1.02606533199299</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04537793352771</v>
+        <v>1.04511359386459</v>
       </c>
       <c r="J9">
-        <v>1.030200075892457</v>
+        <v>1.029980335972074</v>
       </c>
       <c r="K9">
-        <v>1.037312495234971</v>
+        <v>1.036617355329235</v>
       </c>
       <c r="L9">
-        <v>1.032142068826669</v>
+        <v>1.031970407635032</v>
       </c>
       <c r="M9">
-        <v>1.038890164858749</v>
+        <v>1.038749213005216</v>
       </c>
       <c r="N9">
-        <v>1.01389569926693</v>
+        <v>1.015185163147665</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039351346381417</v>
+        <v>1.039239792253081</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037473220708322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036992441846537</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021980257805403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9995419766454077</v>
+        <v>0.9995138389797857</v>
       </c>
       <c r="D10">
-        <v>1.02116134921625</v>
+        <v>1.020719766560786</v>
       </c>
       <c r="E10">
-        <v>1.015301866001193</v>
+        <v>1.015290517746605</v>
       </c>
       <c r="F10">
-        <v>1.02215696870474</v>
+        <v>1.022144713763483</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044241175233233</v>
+        <v>1.044107532360174</v>
       </c>
       <c r="J10">
-        <v>1.027773778682554</v>
+        <v>1.027746758887536</v>
       </c>
       <c r="K10">
-        <v>1.035158758931751</v>
+        <v>1.034724732181048</v>
       </c>
       <c r="L10">
-        <v>1.029400229539579</v>
+        <v>1.029389078268799</v>
       </c>
       <c r="M10">
-        <v>1.036137373350421</v>
+        <v>1.036125327462095</v>
       </c>
       <c r="N10">
-        <v>1.013075851925394</v>
+        <v>1.014702647466183</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037224206455871</v>
+        <v>1.037214673495405</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035967196928437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035672718170446</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021616781394257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9976744080684712</v>
+        <v>0.9977484261826223</v>
       </c>
       <c r="D11">
-        <v>1.0200112980322</v>
+        <v>1.019680902847784</v>
       </c>
       <c r="E11">
-        <v>1.014196890798268</v>
+        <v>1.014268495344283</v>
       </c>
       <c r="F11">
-        <v>1.021465430421683</v>
+        <v>1.021519895981404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043959474209613</v>
+        <v>1.043884162818352</v>
       </c>
       <c r="J11">
-        <v>1.027144255440751</v>
+        <v>1.027215174172443</v>
       </c>
       <c r="K11">
-        <v>1.034565446701228</v>
+        <v>1.03424097128546</v>
       </c>
       <c r="L11">
-        <v>1.028855950504718</v>
+        <v>1.02892625355157</v>
       </c>
       <c r="M11">
-        <v>1.035993584152429</v>
+        <v>1.036047077920144</v>
       </c>
       <c r="N11">
-        <v>1.012893648278471</v>
+        <v>1.014809669844718</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037547090611097</v>
+        <v>1.037589403542305</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035580518956826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035366712597285</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021558393778048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9971445677542757</v>
+        <v>0.997248325995283</v>
       </c>
       <c r="D12">
-        <v>1.019709838578458</v>
+        <v>1.019408457787176</v>
       </c>
       <c r="E12">
-        <v>1.014030776541517</v>
+        <v>1.014125790576168</v>
       </c>
       <c r="F12">
-        <v>1.021600630588576</v>
+        <v>1.021674086481457</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04393495194143</v>
+        <v>1.043874771824641</v>
       </c>
       <c r="J12">
-        <v>1.02707026816967</v>
+        <v>1.027169599891943</v>
       </c>
       <c r="K12">
-        <v>1.034468926560666</v>
+        <v>1.034173035061475</v>
       </c>
       <c r="L12">
-        <v>1.028894016923572</v>
+        <v>1.028987275921009</v>
       </c>
       <c r="M12">
-        <v>1.036325376159543</v>
+        <v>1.036397501210799</v>
       </c>
       <c r="N12">
-        <v>1.012892891947967</v>
+        <v>1.014915998590647</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038136141127077</v>
+        <v>1.038193171843437</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035512276203288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035318680543639</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021569803856891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9976181559816952</v>
+        <v>0.9976885444401111</v>
       </c>
       <c r="D13">
-        <v>1.020054834535671</v>
+        <v>1.019713984082927</v>
       </c>
       <c r="E13">
-        <v>1.014585619268687</v>
+        <v>1.014652249896902</v>
       </c>
       <c r="F13">
-        <v>1.02240019096192</v>
+        <v>1.02245119508118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044117656871488</v>
+        <v>1.044035902087827</v>
       </c>
       <c r="J13">
-        <v>1.02743067176028</v>
+        <v>1.027498072214114</v>
       </c>
       <c r="K13">
-        <v>1.034764864801776</v>
+        <v>1.034430196654761</v>
       </c>
       <c r="L13">
-        <v>1.029395502770904</v>
+        <v>1.029460908463731</v>
       </c>
       <c r="M13">
-        <v>1.037067826701373</v>
+        <v>1.037117911681705</v>
       </c>
       <c r="N13">
-        <v>1.013036799293323</v>
+        <v>1.014997171096449</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038999951992728</v>
+        <v>1.039039545227957</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035719023420853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035497765262673</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021639705468324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9984040434184562</v>
+        <v>0.9984230288155396</v>
       </c>
       <c r="D14">
-        <v>1.0205904828535</v>
+        <v>1.020191481571216</v>
       </c>
       <c r="E14">
-        <v>1.015298554108569</v>
+        <v>1.015322449107607</v>
       </c>
       <c r="F14">
-        <v>1.023258253062748</v>
+        <v>1.023275233670807</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044339504537603</v>
+        <v>1.044226402499064</v>
       </c>
       <c r="J14">
-        <v>1.027879116287924</v>
+        <v>1.027897307159607</v>
       </c>
       <c r="K14">
-        <v>1.035150740088139</v>
+        <v>1.034758887209857</v>
       </c>
       <c r="L14">
-        <v>1.029954214542278</v>
+        <v>1.029977675853324</v>
       </c>
       <c r="M14">
-        <v>1.037770901122782</v>
+        <v>1.037787579725838</v>
       </c>
       <c r="N14">
-        <v>1.013202979131325</v>
+        <v>1.015043737763315</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039729058940965</v>
+        <v>1.039742241949548</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035993272674615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035731717027586</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02171562206932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9988187005402308</v>
+        <v>0.9988119070422897</v>
       </c>
       <c r="D15">
-        <v>1.020867763486431</v>
+        <v>1.020439931425938</v>
       </c>
       <c r="E15">
-        <v>1.015638606387866</v>
+        <v>1.015641283259536</v>
       </c>
       <c r="F15">
-        <v>1.023629319906182</v>
+        <v>1.023629354215627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044442269053124</v>
+        <v>1.044313773697391</v>
       </c>
       <c r="J15">
-        <v>1.028089318755734</v>
+        <v>1.028082807113079</v>
       </c>
       <c r="K15">
-        <v>1.035336786237771</v>
+        <v>1.034916561711846</v>
       </c>
       <c r="L15">
-        <v>1.030201183178169</v>
+        <v>1.030203811838047</v>
       </c>
       <c r="M15">
-        <v>1.038049436182052</v>
+        <v>1.038049469886026</v>
       </c>
       <c r="N15">
-        <v>1.013277399698324</v>
+        <v>1.015054376099322</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03998674896391</v>
+        <v>1.039986775603307</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036130678223238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035849631958427</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021748932812256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000954126171386</v>
+        <v>1.000827493096193</v>
       </c>
       <c r="D16">
-        <v>1.022256077596862</v>
+        <v>1.02169272240332</v>
       </c>
       <c r="E16">
-        <v>1.01724793034448</v>
+        <v>1.017152885103603</v>
       </c>
       <c r="F16">
-        <v>1.025221053626563</v>
+        <v>1.025142781900426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044899402167769</v>
+        <v>1.044699924001062</v>
       </c>
       <c r="J16">
-        <v>1.029053275470568</v>
+        <v>1.02893163793571</v>
       </c>
       <c r="K16">
-        <v>1.036199258713703</v>
+        <v>1.035645489806535</v>
       </c>
       <c r="L16">
-        <v>1.031276813655707</v>
+        <v>1.031183405433403</v>
       </c>
       <c r="M16">
-        <v>1.039114005479802</v>
+        <v>1.039037054927544</v>
       </c>
       <c r="N16">
-        <v>1.01359918195027</v>
+        <v>1.01507353083803</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040789466538252</v>
+        <v>1.040728643579313</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036743640968314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036368474026953</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021885536135523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00218370659757</v>
+        <v>1.001999032137425</v>
       </c>
       <c r="D17">
-        <v>1.02304359333472</v>
+        <v>1.022411876546731</v>
       </c>
       <c r="E17">
-        <v>1.018111401231578</v>
+        <v>1.017969351186207</v>
       </c>
       <c r="F17">
-        <v>1.025989124158307</v>
+        <v>1.02587306950476</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045132558010431</v>
+        <v>1.044898231188995</v>
       </c>
       <c r="J17">
-        <v>1.029558226055019</v>
+        <v>1.029380606644436</v>
       </c>
       <c r="K17">
-        <v>1.036659298506354</v>
+        <v>1.036038033396155</v>
       </c>
       <c r="L17">
-        <v>1.031809153154376</v>
+        <v>1.03166948128505</v>
       </c>
       <c r="M17">
-        <v>1.039556314375705</v>
+        <v>1.039442164443866</v>
       </c>
       <c r="N17">
-        <v>1.013759009521386</v>
+        <v>1.015092485211957</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041010045745895</v>
+        <v>1.04091981081463</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037071492464329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036648851228408</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021951451911359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002735424458695</v>
+        <v>1.002532165583395</v>
       </c>
       <c r="D18">
-        <v>1.023370220178473</v>
+        <v>1.022715822051091</v>
       </c>
       <c r="E18">
-        <v>1.018381710538779</v>
+        <v>1.018225049692311</v>
       </c>
       <c r="F18">
-        <v>1.026062267963624</v>
+        <v>1.025934281816312</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04518547371996</v>
+        <v>1.044940350593685</v>
       </c>
       <c r="J18">
-        <v>1.029695487578962</v>
+        <v>1.029499850891012</v>
       </c>
       <c r="K18">
-        <v>1.036797388383448</v>
+        <v>1.036153641706433</v>
       </c>
       <c r="L18">
-        <v>1.031890519807405</v>
+        <v>1.031736439511231</v>
       </c>
       <c r="M18">
-        <v>1.039445801917181</v>
+        <v>1.039319883587499</v>
       </c>
       <c r="N18">
-        <v>1.013786630110847</v>
+        <v>1.015070082044812</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040684977780028</v>
+        <v>1.040585419245138</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03715750310252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036717831337986</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021955801654224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002683518633354</v>
+        <v>1.002491572420375</v>
       </c>
       <c r="D19">
-        <v>1.023297992441076</v>
+        <v>1.022657806146678</v>
       </c>
       <c r="E19">
-        <v>1.018117685934304</v>
+        <v>1.017970927250897</v>
       </c>
       <c r="F19">
-        <v>1.025501231980238</v>
+        <v>1.025380887113195</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045086523219436</v>
+        <v>1.044849482922291</v>
       </c>
       <c r="J19">
-        <v>1.029511491006861</v>
+        <v>1.029326701622224</v>
       </c>
       <c r="K19">
-        <v>1.036663881072028</v>
+        <v>1.036034061025709</v>
       </c>
       <c r="L19">
-        <v>1.031567937854521</v>
+        <v>1.031423585273878</v>
       </c>
       <c r="M19">
-        <v>1.03883157146142</v>
+        <v>1.038713163291465</v>
       </c>
       <c r="N19">
-        <v>1.013701479394211</v>
+        <v>1.014995464436716</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039873706973405</v>
+        <v>1.039780055806448</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037069497559503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036640297552722</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02190999953556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000929458391954</v>
+        <v>1.000830558015811</v>
       </c>
       <c r="D20">
-        <v>1.022084080036403</v>
+        <v>1.02155950924096</v>
       </c>
       <c r="E20">
-        <v>1.016369194255369</v>
+        <v>1.016299668108477</v>
       </c>
       <c r="F20">
-        <v>1.023222019165664</v>
+        <v>1.023163145114343</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044554957980832</v>
+        <v>1.044378021954288</v>
       </c>
       <c r="J20">
-        <v>1.028424597934866</v>
+        <v>1.028329500545869</v>
       </c>
       <c r="K20">
-        <v>1.035749413272131</v>
+        <v>1.035233565992963</v>
       </c>
       <c r="L20">
-        <v>1.030130191005949</v>
+        <v>1.030061837226498</v>
       </c>
       <c r="M20">
-        <v>1.036868468263836</v>
+        <v>1.036810569902856</v>
       </c>
       <c r="N20">
-        <v>1.013298267337299</v>
+        <v>1.014762909349304</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037792226832147</v>
+        <v>1.037746406263711</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036426850158592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036078623376874</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021717642209162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968907391313689</v>
+        <v>0.9970344042961538</v>
       </c>
       <c r="D21">
-        <v>1.019439270371947</v>
+        <v>1.019185703623246</v>
       </c>
       <c r="E21">
-        <v>1.013214961457884</v>
+        <v>1.013345579613453</v>
       </c>
       <c r="F21">
-        <v>1.019992397845506</v>
+        <v>1.020093724884938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043646048063071</v>
+        <v>1.043613581759487</v>
       </c>
       <c r="J21">
-        <v>1.026519034927844</v>
+        <v>1.026656641257756</v>
       </c>
       <c r="K21">
-        <v>1.034061487133636</v>
+        <v>1.033812490595078</v>
       </c>
       <c r="L21">
-        <v>1.027950224120682</v>
+        <v>1.028078451414009</v>
       </c>
       <c r="M21">
-        <v>1.034604655451945</v>
+        <v>1.034704159601664</v>
       </c>
       <c r="N21">
-        <v>1.012648641684285</v>
+        <v>1.01472577340968</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035959639558237</v>
+        <v>1.036038390916999</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035236645844991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035077420056967</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021441516669623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9943264403268827</v>
+        <v>0.9946233690501018</v>
       </c>
       <c r="D22">
-        <v>1.017761890724028</v>
+        <v>1.017679599128582</v>
       </c>
       <c r="E22">
-        <v>1.011239238978694</v>
+        <v>1.011496422144554</v>
       </c>
       <c r="F22">
-        <v>1.017998611867049</v>
+        <v>1.018201255793104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043064810318534</v>
+        <v>1.043123676947913</v>
       </c>
       <c r="J22">
-        <v>1.02531768726364</v>
+        <v>1.02560137522645</v>
       </c>
       <c r="K22">
-        <v>1.032989506297448</v>
+        <v>1.032908771562541</v>
       </c>
       <c r="L22">
-        <v>1.026591284714337</v>
+        <v>1.026843521898893</v>
       </c>
       <c r="M22">
-        <v>1.033221750788088</v>
+        <v>1.033420564659814</v>
       </c>
       <c r="N22">
-        <v>1.01223980909832</v>
+        <v>1.014697484055553</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03486515544022</v>
+        <v>1.035022504514897</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034465209489555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034423651228697</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021264268541098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9956822796229698</v>
+        <v>0.9958878931151876</v>
       </c>
       <c r="D23">
-        <v>1.018641923199382</v>
+        <v>1.018461155256971</v>
       </c>
       <c r="E23">
-        <v>1.012282550937242</v>
+        <v>1.01246415355619</v>
       </c>
       <c r="F23">
-        <v>1.019052709716749</v>
+        <v>1.019194898209498</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043368768529114</v>
+        <v>1.043374243041573</v>
       </c>
       <c r="J23">
-        <v>1.025949146586706</v>
+        <v>1.026145856272527</v>
       </c>
       <c r="K23">
-        <v>1.033548433904568</v>
+        <v>1.033370999896368</v>
       </c>
       <c r="L23">
-        <v>1.027307283347125</v>
+        <v>1.027485483050861</v>
       </c>
       <c r="M23">
-        <v>1.033951649946392</v>
+        <v>1.034091219868499</v>
       </c>
       <c r="N23">
-        <v>1.012453829039136</v>
+        <v>1.014668417070533</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035442826012282</v>
+        <v>1.035553287021316</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034850765081912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034739893795609</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021352944639103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000939483393879</v>
+        <v>1.000841112781542</v>
       </c>
       <c r="D24">
-        <v>1.02207506501442</v>
+        <v>1.021551105166986</v>
       </c>
       <c r="E24">
-        <v>1.016344569857582</v>
+        <v>1.016275576878485</v>
       </c>
       <c r="F24">
-        <v>1.023158419864237</v>
+        <v>1.023099939586913</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044538893029763</v>
+        <v>1.044362445570248</v>
       </c>
       <c r="J24">
-        <v>1.028401416575231</v>
+        <v>1.028306823158085</v>
       </c>
       <c r="K24">
-        <v>1.035725299339359</v>
+        <v>1.035210041875368</v>
       </c>
       <c r="L24">
-        <v>1.030090610074368</v>
+        <v>1.030022779051191</v>
       </c>
       <c r="M24">
-        <v>1.036790697268</v>
+        <v>1.036733185068376</v>
       </c>
       <c r="N24">
-        <v>1.013286432475466</v>
+        <v>1.014749911607149</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037689753968039</v>
+        <v>1.03764423673829</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036382415767723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036031932543331</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021708018521416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006856418152158</v>
+        <v>1.006554714719839</v>
       </c>
       <c r="D25">
-        <v>1.025958660299202</v>
+        <v>1.02515268388122</v>
       </c>
       <c r="E25">
-        <v>1.020946897934182</v>
+        <v>1.020711973081444</v>
       </c>
       <c r="F25">
-        <v>1.027818606830296</v>
+        <v>1.027626902395751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04582369418909</v>
+        <v>1.04551000139949</v>
       </c>
       <c r="J25">
-        <v>1.031155219355819</v>
+        <v>1.030863482377933</v>
       </c>
       <c r="K25">
-        <v>1.038166936253371</v>
+        <v>1.037372693016263</v>
       </c>
       <c r="L25">
-        <v>1.033228515411438</v>
+        <v>1.032997050863522</v>
       </c>
       <c r="M25">
-        <v>1.039999895219843</v>
+        <v>1.039810966665919</v>
       </c>
       <c r="N25">
-        <v>1.01422130063686</v>
+        <v>1.015391442186572</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040229624422748</v>
+        <v>1.040080100067967</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038105917035166</v>
+        <v>1.03755787197668</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022127110164687</v>
       </c>
     </row>
   </sheetData>
